--- a/Checklist_Template .xlsx
+++ b/Checklist_Template .xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="139">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -432,13 +432,22 @@
   </si>
   <si>
     <t>75/25(&lt;=50k/&gt;50k)</t>
+  </si>
+  <si>
+    <t>https://github.com/sankethins/B29_intern_Sanketh/blob/master/Docs/AttributeNames.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/sankethins/B29_intern_Sanketh/blob/master/Docs/dstats.JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/sankethins/B29_intern_Sanketh/blob/master/Docs/Rplot.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -477,6 +486,29 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -646,17 +678,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -667,7 +697,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -694,15 +723,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,8 +739,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1041,134 +1079,134 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="54"/>
-    <col min="3" max="16384" width="14.42578125" style="47"/>
+    <col min="1" max="1" width="41.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="45"/>
+    <col min="3" max="16384" width="14.42578125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="45"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="37">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="37">
         <v>4</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="41">
         <v>5</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="37">
         <v>8</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="41">
         <v>8</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+      <c r="A12" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1177,304 +1215,323 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" style="53" customWidth="1"/>
+    <col min="2" max="16384" width="14.42578125" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="54" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="55">
         <v>32561</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="55">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="55"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="55">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="55">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="55">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="56">
         <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="53" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="53" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="53">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="54" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="53" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="53">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="55"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="A26" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="55"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="58" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A32" r:id="rId1" xr:uid="{AA540D6A-6A99-4068-91C7-129C8F3203CC}"/>
+    <hyperlink ref="A26" r:id="rId2" xr:uid="{D75C1230-4BED-4AB3-95BA-AA2CBCB68630}"/>
+    <hyperlink ref="A36" r:id="rId3" xr:uid="{1154E7E2-C78D-40AB-AEDF-AB23A0DC8C18}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1496,460 +1553,460 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="E9" s="7" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="E13" s="22" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="E13" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="E15" s="7" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="E15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="E21" s="7" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="E21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="E22" s="25" t="s">
+      <c r="C22" s="24"/>
+      <c r="E22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="C23" s="28"/>
-      <c r="E23" s="13"/>
-      <c r="G23" s="28"/>
+      <c r="A23" s="10"/>
+      <c r="C23" s="24"/>
+      <c r="E23" s="10"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="C24" s="28"/>
-      <c r="E24" s="13"/>
-      <c r="G24" s="28"/>
+      <c r="A24" s="10"/>
+      <c r="C24" s="24"/>
+      <c r="E24" s="10"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="16"/>
+      <c r="E27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="E28" s="25" t="s">
+      <c r="C28" s="24"/>
+      <c r="E28" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="29"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="C29" s="28"/>
-      <c r="E29" s="21" t="s">
+      <c r="A29" s="10"/>
+      <c r="C29" s="24"/>
+      <c r="E29" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="C30" s="28"/>
-      <c r="E30" s="21" t="s">
+      <c r="A30" s="10"/>
+      <c r="C30" s="24"/>
+      <c r="E30" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="E31" s="21" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="E31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="24"/>
     </row>
     <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="C35" s="28"/>
-      <c r="E35" s="7" t="s">
+      <c r="A35" s="10"/>
+      <c r="C35" s="24"/>
+      <c r="E35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="20"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="C36" s="28"/>
-      <c r="E36" s="21" t="s">
+      <c r="A36" s="10"/>
+      <c r="C36" s="24"/>
+      <c r="E36" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="28"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="E37" s="13"/>
-      <c r="G37" s="28"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="E37" s="10"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E38" s="13"/>
-      <c r="G38" s="28"/>
+      <c r="E38" s="10"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="20"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="16"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="28"/>
+      <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="C41" s="28"/>
-      <c r="E41" s="7" t="s">
+      <c r="A41" s="10"/>
+      <c r="C41" s="24"/>
+      <c r="E41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="20"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="C42" s="28"/>
-      <c r="E42" s="21" t="s">
+      <c r="A42" s="10"/>
+      <c r="C42" s="24"/>
+      <c r="E42" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="28"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="E43" s="13"/>
-      <c r="G43" s="28"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="E43" s="10"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E44" s="13"/>
-      <c r="G44" s="28"/>
+      <c r="E44" s="10"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E45" s="15"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1969,203 +2026,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="32" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="32" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="32" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="29"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="32" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="32" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2187,292 +2244,292 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34"/>
+      <c r="A1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="35" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="21"/>
-      <c r="I3" s="28"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="17"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="I4" s="28"/>
+      <c r="C4" s="3"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="I5" s="28"/>
+      <c r="C5" s="3"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="I6" s="28"/>
+      <c r="C6" s="3"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="28"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="I8" s="28"/>
+      <c r="C8" s="3"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="I9" s="28"/>
+      <c r="D9" s="10"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="I10" s="28"/>
+      <c r="D10" s="10"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="28"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="I12" s="28"/>
+      <c r="D12" s="10"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="I13" s="28"/>
+      <c r="D13" s="10"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="I15" s="28"/>
+      <c r="D15" s="10"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="I16" s="28"/>
+      <c r="D16" s="10"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="28"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="I18" s="28"/>
+      <c r="D18" s="10"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="I19" s="28"/>
+      <c r="D19" s="10"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="28"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="I21" s="28"/>
+      <c r="D21" s="10"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="I22" s="28"/>
+      <c r="D22" s="10"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="I23" s="28"/>
+      <c r="D23" s="10"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="I24" s="28"/>
+      <c r="D24" s="10"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="I25" s="28"/>
+      <c r="D25" s="10"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="I26" s="28"/>
+      <c r="D26" s="10"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="I27" s="28"/>
+      <c r="D27" s="10"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="I28" s="28"/>
+      <c r="D28" s="10"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="I29" s="28"/>
+      <c r="D29" s="10"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="I30" s="28"/>
+      <c r="D30" s="10"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2494,82 +2551,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="35" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Checklist_Template .xlsx
+++ b/Checklist_Template .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Schedule" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="146">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -441,13 +441,34 @@
   </si>
   <si>
     <t>https://github.com/sankethins/B29_intern_Sanketh/blob/master/Docs/Rplot.jpeg</t>
+  </si>
+  <si>
+    <t>V15</t>
+  </si>
+  <si>
+    <t>Tried</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V13</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Eliminated points outside 1.5*IQR, replaced with NA, Did KNN Imputation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -486,6 +507,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -680,9 +707,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -739,6 +766,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,14 +776,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1217,312 +1245,312 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" style="53" customWidth="1"/>
-    <col min="2" max="16384" width="14.42578125" style="53"/>
+    <col min="1" max="1" width="49.85546875" style="54" customWidth="1"/>
+    <col min="2" max="16384" width="14.42578125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="56">
         <v>32561</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="56">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="56"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="56">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="56">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="56"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="56">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="57">
         <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="54" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="54" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="54">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="55" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="54" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="54">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="55"/>
+      <c r="H25" s="56"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="55"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="59" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1540,7 +1568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1613,7 +1643,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1680,6 +1712,9 @@
       <c r="A11" s="17" t="s">
         <v>54</v>
       </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
       <c r="C11" s="11" t="s">
         <v>55</v>
       </c>
@@ -1693,6 +1728,9 @@
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>57</v>
@@ -1825,20 +1863,34 @@
       <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
       <c r="C23" s="24"/>
       <c r="E23" s="10"/>
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+      <c r="A24" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="E24" s="10"/>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="C25" s="20"/>
       <c r="E25" s="12"/>
       <c r="F25" s="19"/>
@@ -1973,7 +2025,12 @@
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
+      <c r="A41" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
       <c r="C41" s="24"/>
       <c r="E41" s="4" t="s">
         <v>78</v>
@@ -1982,7 +2039,12 @@
       <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
+      <c r="A42" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>145</v>
+      </c>
       <c r="C42" s="24"/>
       <c r="E42" s="17" t="s">
         <v>21</v>
@@ -1993,8 +2055,12 @@
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="19"/>
+      <c r="A43" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>145</v>
+      </c>
       <c r="C43" s="20"/>
       <c r="E43" s="10"/>
       <c r="G43" s="24"/>
@@ -2026,15 +2092,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -2129,15 +2195,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
@@ -2256,14 +2322,14 @@
       <c r="C2" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="31" t="s">
         <v>83</v>
       </c>

--- a/Checklist_Template .xlsx
+++ b/Checklist_Template .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Schedule" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="147">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -462,13 +462,16 @@
   </si>
   <si>
     <t>Eliminated points outside 1.5*IQR, replaced with NA, Did KNN Imputation</t>
+  </si>
+  <si>
+    <t>V5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -537,6 +540,23 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -709,35 +729,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -766,7 +766,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,14 +783,34 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1107,134 +1134,134 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="45"/>
-    <col min="3" max="16384" width="14.42578125" style="38"/>
+    <col min="1" max="1" width="41.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="25"/>
+    <col min="3" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="36"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="17">
         <v>4</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="21">
         <v>5</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="17">
         <v>8</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="21">
         <v>8</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1251,306 +1278,306 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" style="54" customWidth="1"/>
-    <col min="2" max="16384" width="14.42578125" style="54"/>
+    <col min="1" max="1" width="49.85546875" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="30">
         <v>32561</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="30">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="30"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="30">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="30"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="31">
         <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="28" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="28" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="28" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="28" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="54">
+      <c r="B22" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="56"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="30"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="33" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1568,511 +1595,523 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="41"/>
+    <col min="5" max="5" width="31.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="E3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="53" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="E9" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="47" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="E13" s="18" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="E13" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="E15" s="4" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="E15" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="62" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="50" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="50" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="E21" s="4" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="E21" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="E22" s="21" t="s">
+      <c r="C22" s="63"/>
+      <c r="E22" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="64"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="E23" s="10"/>
-      <c r="G23" s="24"/>
+      <c r="C23" s="63"/>
+      <c r="E23" s="48"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="E24" s="10"/>
-      <c r="G24" s="24"/>
+      <c r="C24" s="63"/>
+      <c r="E24" s="48"/>
+      <c r="G24" s="63"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
+      <c r="C25" s="59"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="E27" s="4" t="s">
+      <c r="C27" s="55"/>
+      <c r="E27" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="E28" s="21" t="s">
+      <c r="C28" s="63"/>
+      <c r="E28" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="25"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="64"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="C29" s="24"/>
-      <c r="E29" s="17" t="s">
+      <c r="A29" s="48"/>
+      <c r="C29" s="63"/>
+      <c r="E29" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="24"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="C30" s="24"/>
-      <c r="E30" s="17" t="s">
+      <c r="A30" s="48"/>
+      <c r="C30" s="63"/>
+      <c r="E30" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="24"/>
+      <c r="G30" s="63"/>
     </row>
     <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="E31" s="17" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="E31" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="24"/>
+      <c r="G31" s="63"/>
     </row>
     <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
     </row>
     <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="16"/>
+      <c r="C33" s="55"/>
     </row>
     <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="63"/>
     </row>
     <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="C35" s="24"/>
-      <c r="E35" s="4" t="s">
+      <c r="A35" s="48"/>
+      <c r="C35" s="63"/>
+      <c r="E35" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="16"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="C36" s="24"/>
-      <c r="E36" s="17" t="s">
+      <c r="A36" s="48"/>
+      <c r="C36" s="63"/>
+      <c r="E36" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="24"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="E37" s="10"/>
-      <c r="G37" s="24"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="59"/>
+      <c r="E37" s="48"/>
+      <c r="G37" s="63"/>
     </row>
     <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E38" s="10"/>
-      <c r="G38" s="24"/>
+      <c r="E38" s="48"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="16"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="55"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="63"/>
     </row>
     <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="E41" s="4" t="s">
+      <c r="C41" s="63"/>
+      <c r="E41" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="16"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="E42" s="17" t="s">
+      <c r="C42" s="63"/>
+      <c r="E42" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="24"/>
+      <c r="G42" s="63"/>
     </row>
     <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="E43" s="10"/>
-      <c r="G43" s="24"/>
+      <c r="C43" s="59"/>
+      <c r="E43" s="48"/>
+      <c r="G43" s="63"/>
     </row>
     <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E44" s="10"/>
-      <c r="G44" s="24"/>
+      <c r="E44" s="48"/>
+      <c r="G44" s="63"/>
     </row>
     <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E45" s="12"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2083,7 +2122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2092,203 +2133,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="11" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="12" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2310,292 +2351,292 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30"/>
+      <c r="A1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="31" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="17"/>
-      <c r="I3" s="24"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="I4" s="24"/>
+      <c r="C4" s="1"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="I5" s="24"/>
+      <c r="C5" s="1"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="I6" s="24"/>
+      <c r="C6" s="1"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="I8" s="24"/>
+      <c r="C8" s="1"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="I9" s="24"/>
+      <c r="D9" s="2"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="I10" s="24"/>
+      <c r="D10" s="2"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="I12" s="24"/>
+      <c r="D12" s="2"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="I13" s="24"/>
+      <c r="D13" s="2"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="I15" s="24"/>
+      <c r="D15" s="2"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="I16" s="24"/>
+      <c r="D16" s="2"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="I18" s="24"/>
+      <c r="D18" s="2"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="I19" s="24"/>
+      <c r="D19" s="2"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="I21" s="24"/>
+      <c r="D21" s="2"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="I22" s="24"/>
+      <c r="D22" s="2"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="I23" s="24"/>
+      <c r="D23" s="2"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="I24" s="24"/>
+      <c r="D24" s="2"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="I25" s="24"/>
+      <c r="D25" s="2"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="I26" s="24"/>
+      <c r="D26" s="2"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="I27" s="24"/>
+      <c r="D27" s="2"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="I28" s="24"/>
+      <c r="D28" s="2"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="I29" s="24"/>
+      <c r="D29" s="2"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="I30" s="24"/>
+      <c r="D30" s="2"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2617,82 +2658,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="15" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Checklist_Template .xlsx
+++ b/Checklist_Template .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Schedule" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="151">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -465,13 +465,25 @@
   </si>
   <si>
     <t>V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method = C50, trials = 5, #ofnodes = 10 </t>
+  </si>
+  <si>
+    <t>Method = binomial</t>
+  </si>
+  <si>
+    <t>K = 11</t>
+  </si>
+  <si>
+    <t>Method = rpart, trials = 5, #ofnodes = 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -557,6 +569,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -729,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -774,15 +792,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -811,6 +821,18 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1595,523 +1617,523 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="41"/>
-    <col min="5" max="5" width="31.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="41"/>
+    <col min="1" max="1" width="28.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="37"/>
+    <col min="5" max="5" width="31.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="E3" s="42" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="E3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="43" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52" t="s">
+      <c r="E7" s="47"/>
+      <c r="F7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="49" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="E9" s="42" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="E9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="43" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="E13" s="57" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="E13" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="E15" s="42" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="E15" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="G16" s="58" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="E21" s="42" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="E21" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="E22" s="60" t="s">
+      <c r="C22" s="59"/>
+      <c r="E22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="64"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="E23" s="48"/>
-      <c r="G23" s="63"/>
+      <c r="C23" s="59"/>
+      <c r="E23" s="44"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="E24" s="48"/>
-      <c r="G24" s="63"/>
+      <c r="C24" s="59"/>
+      <c r="E24" s="44"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="C25" s="55"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="E27" s="42" t="s">
+      <c r="C27" s="51"/>
+      <c r="E27" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="E28" s="60" t="s">
+      <c r="C28" s="59"/>
+      <c r="E28" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="64"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="C29" s="63"/>
-      <c r="E29" s="56" t="s">
+      <c r="A29" s="44"/>
+      <c r="C29" s="59"/>
+      <c r="E29" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="63"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
-      <c r="C30" s="63"/>
-      <c r="E30" s="56" t="s">
+      <c r="A30" s="44"/>
+      <c r="C30" s="59"/>
+      <c r="E30" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="63"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="E31" s="56" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="E31" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="63"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="55"/>
+      <c r="C33" s="51"/>
     </row>
     <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="59"/>
     </row>
     <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
-      <c r="C35" s="63"/>
-      <c r="E35" s="42" t="s">
+      <c r="A35" s="44"/>
+      <c r="C35" s="59"/>
+      <c r="E35" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="55"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="51"/>
     </row>
     <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
-      <c r="C36" s="63"/>
-      <c r="E36" s="56" t="s">
+      <c r="A36" s="44"/>
+      <c r="C36" s="59"/>
+      <c r="E36" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="63"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="59"/>
-      <c r="E37" s="48"/>
-      <c r="G37" s="63"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="E37" s="44"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E38" s="48"/>
-      <c r="G38" s="63"/>
+      <c r="E38" s="44"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="55"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="59"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="51"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="59"/>
     </row>
     <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="63"/>
-      <c r="E41" s="42" t="s">
+      <c r="C41" s="59"/>
+      <c r="E41" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="65"/>
-      <c r="G41" s="55"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="51"/>
     </row>
     <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="E42" s="56" t="s">
+      <c r="C42" s="59"/>
+      <c r="E42" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="63"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="E43" s="48"/>
-      <c r="G43" s="63"/>
+      <c r="C43" s="55"/>
+      <c r="E43" s="44"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E44" s="48"/>
-      <c r="G44" s="63"/>
+      <c r="E44" s="44"/>
+      <c r="G44" s="59"/>
     </row>
     <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E45" s="51"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2120,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2133,15 +2155,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -2177,168 +2199,228 @@
         <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="C4" s="68">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="D4" s="68">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.54</v>
+      </c>
+      <c r="F4">
+        <v>0.66239999999999999</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.8898914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>147</v>
+      </c>
+      <c r="C5" s="68">
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="D5" s="68">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0.66449999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>150</v>
+      </c>
+      <c r="C6" s="68">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="D6" s="68">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="E6">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.61670000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>149</v>
+      </c>
+      <c r="C8" s="68">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="D8" s="68">
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.51</v>
+      </c>
+      <c r="F8">
+        <v>0.63690000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2363,14 +2445,14 @@
       <c r="C2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="11" t="s">
         <v>83</v>
       </c>
